--- a/similarities/split_global/harmonic_similarity_timestamps_289.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_289.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,182 +484,198 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>jaah_27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A#:7', 'D#:maj', 'D#:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A:7', 'D', 'D:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:09.840000', '0:01:26.060000')]</t>
+          <t>('0:01:04.580000', '0:01:17.220000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:02.580000', '0:00:16.360000')]</t>
+          <t>('0:00:09.820000', '0:00:17.090000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=69.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.58</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=2.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=9.82</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+          <t>('0:00:51.641107', '0:00:57.139232')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:15.791400')]</t>
+          <t>('0:00:21.020000', '0:00:26.800000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=51.641107</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=21.02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:09.380000', '0:02:14.380000')]</t>
+          <t>('0:02:20.480000', '0:02:25.980000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/5']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:28.480000', '0:01:40.380000')]</t>
+          <t>('0:00:54.760000', '0:01:02.820000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:24.323000', '0:01:27.713000')]</t>
+          <t>('0:00:19.060000', '0:00:30.080000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=88.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=54.76</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=19.06</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -668,506 +684,538 @@
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#', 'F#:min']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:05.900000')]</t>
+          <t>('0:00:17.780000', '0:00:25.400000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:03.744784', '0:00:06.774988')]</t>
+          <t>('0:00:00.800000', '0:00:02.880000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=17.78</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E', 'A']]</t>
+          <t>['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E', 'A']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:22.290863', '0:01:38.974002')]</t>
+          <t>('0:00:29.100000', '0:00:45.980000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:51.380000')]</t>
+          <t>('0:00:00.660000', '0:00:07.700000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=29.1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=0.66</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:sus4', 'G', 'C']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F#:sus4', 'F#', 'B']]</t>
+          <t>['D:7', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:12.135000', '0:00:17.431000')]</t>
+          <t>('0:00:30.494172', '0:00:33.431496')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:04.406553', '0:00:06.020340')]</t>
+          <t>('0:01:04.300000', '0:01:14.900000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=12.135']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=30.494172</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-22#t=4.406553']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=64.3</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>isophonics_33</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G/3', 'C:maj']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['F', 'C', 'G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:37.019000', '0:02:40.636000')]</t>
+          <t>('0:00:58.920000', '0:01:06.100000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:44.820000', '0:00:47.280000')]</t>
+          <t>('0:00:02.252358', '0:00:05.805011')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=58.92</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=2.252358</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G/5', 'D', 'G/5'], ['D', 'G', 'D']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['A', 'D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:21.391000', '0:00:24.332000'), ('0:00:00.279000', '0:00:16.531000')]</t>
+          <t>('0:02:23.580000', '0:02:29.120000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:02:02.780000', '0:02:17.555000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=21.391', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=0.279']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:04.080000', '0:01:11.860000')]</t>
+          <t>('0:00:16.200000', '0:00:18.460000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=64.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'B']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj', 'F:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Eb:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:53.138888', '0:01:08.150589')]</t>
+          <t>('0:01:14.400000', '0:01:30.320000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+          <t>('0:00:33.480000', '0:00:46.320000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=53.138888']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D'], ['A:7', 'D', 'D:min']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab:7', 'Db'], ['Ab:7', 'Db', 'Db:min']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:18.651995', '0:00:24.735623'), ('0:00:20.648911', '0:00:26.790589')]</t>
+          <t>('0:00:17.780000', '0:00:25.400000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:32.030000', '0:01:37.740000'), ('0:00:36.660000', '0:00:38.430000')]</t>
+          <t>('0:00:00.660000', '0:00:02.680000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=18.651995', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=20.648911']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=17.78</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=92.03', 'https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=36.66']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab'], ['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C'], ['A:7', 'D:7', 'G']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:41.450000', '0:01:45.490000'), ('0:00:43.610000', '0:00:45.410000')]</t>
+          <t>('0:00:05.440000', '0:00:14.410000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:18.600000', '0:00:23.810000'), ('0:00:02.900000', '0:00:11.630000')]</t>
+          <t>('0:00:05.650000', '0:00:08.920000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=101.45', 'https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=18.6', 'https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=2.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=5.65</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_189</t>
+          <t>isophonics_225</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Bb/3', 'C:min', 'F:min']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min', 'D:min']]</t>
+          <t>['E:7', 'A:min', 'A:min/b7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:23.141000', '0:01:31.243000')]</t>
+          <t>('0:00:28.960000', '0:00:49.060000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:09.619433', '0:00:18.826145')]</t>
+          <t>('0:00:40.049000', '0:00:48.539000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=83.141']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=28.96</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-189#t=9.619433']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=40.049</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:04.660000', '0:01:11.060000')]</t>
+          <t>('0:00:13.420000', '0:00:19.500000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:11.260000', '0:00:14.360000')]</t>
+          <t>('0:00:10.560000', '0:00:17.340000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=64.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=11.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
